--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl4</t>
+  </si>
+  <si>
+    <t>Ccr5</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl4</t>
-  </si>
-  <si>
-    <t>Ccr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2972863333333334</v>
+        <v>0.03814</v>
       </c>
       <c r="H2">
-        <v>0.8918590000000001</v>
+        <v>0.11442</v>
       </c>
       <c r="I2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="J2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N2">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q2">
-        <v>0.001923145290333334</v>
+        <v>0.00030347998</v>
       </c>
       <c r="R2">
-        <v>0.017308307613</v>
+        <v>0.00273131982</v>
       </c>
       <c r="S2">
-        <v>1.056376146570708E-06</v>
+        <v>1.067905247621081E-07</v>
       </c>
       <c r="T2">
-        <v>1.056376146570708E-06</v>
+        <v>1.067905247621081E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2972863333333334</v>
+        <v>0.03814</v>
       </c>
       <c r="H3">
-        <v>0.8918590000000001</v>
+        <v>0.11442</v>
       </c>
       <c r="I3">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="J3">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.316709</v>
       </c>
       <c r="O3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q3">
-        <v>0.03138441911455556</v>
+        <v>0.004026427086666667</v>
       </c>
       <c r="R3">
-        <v>0.282459772031</v>
+        <v>0.03623784378</v>
       </c>
       <c r="S3">
-        <v>1.72393380225827E-05</v>
+        <v>1.416845557659189E-06</v>
       </c>
       <c r="T3">
-        <v>1.72393380225827E-05</v>
+        <v>1.416845557659189E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2972863333333334</v>
+        <v>0.03814</v>
       </c>
       <c r="H4">
-        <v>0.8918590000000001</v>
+        <v>0.11442</v>
       </c>
       <c r="I4">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="J4">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N4">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O4">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P4">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q4">
-        <v>0.1705936003746667</v>
+        <v>0.0009343410066666667</v>
       </c>
       <c r="R4">
-        <v>1.535342403372</v>
+        <v>0.00840906906</v>
       </c>
       <c r="S4">
-        <v>9.370639394706277E-05</v>
+        <v>3.287820383034481E-07</v>
       </c>
       <c r="T4">
-        <v>9.370639394706276E-05</v>
+        <v>3.287820383034481E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2972863333333334</v>
+        <v>0.03814</v>
       </c>
       <c r="H5">
-        <v>0.8918590000000001</v>
+        <v>0.11442</v>
       </c>
       <c r="I5">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="J5">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N5">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O5">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P5">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q5">
-        <v>9.350592527142334</v>
+        <v>1.23396596074</v>
       </c>
       <c r="R5">
-        <v>84.15533274428101</v>
+        <v>11.10569364666</v>
       </c>
       <c r="S5">
-        <v>0.005136243710564062</v>
+        <v>0.0004342160312716624</v>
       </c>
       <c r="T5">
-        <v>0.005136243710564061</v>
+        <v>0.0004342160312716623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.418502333333333</v>
+        <v>0.2972863333333333</v>
       </c>
       <c r="H6">
-        <v>4.255507</v>
+        <v>0.891859</v>
       </c>
       <c r="I6">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="J6">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686811</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N6">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q6">
-        <v>0.009176291594333334</v>
+        <v>0.002365507354333333</v>
       </c>
       <c r="R6">
-        <v>0.08258662434899999</v>
+        <v>0.021289566189</v>
       </c>
       <c r="S6">
-        <v>5.040500893487283E-06</v>
+        <v>8.323902344328697E-07</v>
       </c>
       <c r="T6">
-        <v>5.040500893487283E-06</v>
+        <v>8.323902344328696E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.418502333333333</v>
+        <v>0.2972863333333333</v>
       </c>
       <c r="H7">
-        <v>4.255507</v>
+        <v>0.891859</v>
       </c>
       <c r="I7">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="J7">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686811</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.316709</v>
       </c>
       <c r="O7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q7">
-        <v>0.1497508184958889</v>
+        <v>0.03138441911455556</v>
       </c>
       <c r="R7">
-        <v>1.347757366463</v>
+        <v>0.282459772031</v>
       </c>
       <c r="S7">
-        <v>8.22575358105562E-05</v>
+        <v>1.104375513204305E-05</v>
       </c>
       <c r="T7">
-        <v>8.225753581055618E-05</v>
+        <v>1.104375513204305E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +900,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.418502333333333</v>
+        <v>0.2972863333333333</v>
       </c>
       <c r="H8">
-        <v>4.255507</v>
+        <v>0.891859</v>
       </c>
       <c r="I8">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="J8">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686811</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N8">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O8">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P8">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q8">
-        <v>0.8139877049506666</v>
+        <v>0.007282821498555555</v>
       </c>
       <c r="R8">
-        <v>7.325889344556</v>
+        <v>0.065545393487</v>
       </c>
       <c r="S8">
-        <v>0.0004471202458981556</v>
+        <v>2.562726969928989E-06</v>
       </c>
       <c r="T8">
-        <v>0.0004471202458981556</v>
+        <v>2.562726969928989E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.418502333333333</v>
+        <v>0.2972863333333333</v>
       </c>
       <c r="H9">
-        <v>4.255507</v>
+        <v>0.891859</v>
       </c>
       <c r="I9">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="J9">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N9">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O9">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P9">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q9">
-        <v>44.61637092119033</v>
+        <v>9.618280438556333</v>
       </c>
       <c r="R9">
-        <v>401.547338290713</v>
+        <v>86.56452394700699</v>
       </c>
       <c r="S9">
-        <v>0.02450759712467031</v>
+        <v>0.003384543571350406</v>
       </c>
       <c r="T9">
-        <v>0.0245075971246703</v>
+        <v>0.003384543571350406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.92910633333333</v>
+        <v>87.12790666666666</v>
       </c>
       <c r="H10">
-        <v>164.787319</v>
+        <v>261.38372</v>
       </c>
       <c r="I10">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="J10">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069208</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N10">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q10">
-        <v>0.3553363888703333</v>
+        <v>0.6932767533466667</v>
       </c>
       <c r="R10">
-        <v>3.198027499833</v>
+        <v>6.23949078012</v>
       </c>
       <c r="S10">
-        <v>0.0001951848812973105</v>
+        <v>0.0002439547685987758</v>
       </c>
       <c r="T10">
-        <v>0.0001951848812973105</v>
+        <v>0.0002439547685987758</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.92910633333333</v>
+        <v>87.12790666666666</v>
       </c>
       <c r="H11">
-        <v>164.787319</v>
+        <v>261.38372</v>
       </c>
       <c r="I11">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="J11">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069208</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.316709</v>
       </c>
       <c r="O11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q11">
-        <v>5.798847445907889</v>
+        <v>9.198064064164445</v>
       </c>
       <c r="R11">
-        <v>52.18962701317101</v>
+        <v>82.78257657748</v>
       </c>
       <c r="S11">
-        <v>0.003185284102168801</v>
+        <v>0.003236675078888596</v>
       </c>
       <c r="T11">
-        <v>0.003185284102168801</v>
+        <v>0.003236675078888597</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.92910633333333</v>
+        <v>87.12790666666666</v>
       </c>
       <c r="H12">
-        <v>164.787319</v>
+        <v>261.38372</v>
       </c>
       <c r="I12">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="J12">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069208</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N12">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O12">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P12">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q12">
-        <v>31.52029866189466</v>
+        <v>2.134430414884444</v>
       </c>
       <c r="R12">
-        <v>283.682687957052</v>
+        <v>19.20987373396</v>
       </c>
       <c r="S12">
-        <v>0.01731397612368581</v>
+        <v>0.000751077366202917</v>
       </c>
       <c r="T12">
-        <v>0.0173139761236858</v>
+        <v>0.0007510773662029169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.92910633333333</v>
+        <v>87.12790666666666</v>
       </c>
       <c r="H13">
-        <v>164.787319</v>
+        <v>261.38372</v>
       </c>
       <c r="I13">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="J13">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069208</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N13">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O13">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P13">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q13">
-        <v>1727.693585655602</v>
+        <v>2818.900656979506</v>
       </c>
       <c r="R13">
-        <v>15549.24227090042</v>
+        <v>25370.10591281556</v>
       </c>
       <c r="S13">
-        <v>0.9490152936668954</v>
+        <v>0.9919332418932305</v>
       </c>
       <c r="T13">
-        <v>0.9490152936668952</v>
+        <v>0.9919332418932304</v>
       </c>
     </row>
   </sheetData>
